--- a/iPhone.xlsx
+++ b/iPhone.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/87e504f2267d2b3d/Ralph/Insper/2° semestre/Ciencia dos Dados/P1CDados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="114_{84B266C8-D8E9-4AEF-BBF4-1B62A16D542C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{62D94EF5-9156-4951-A01B-58FFF6AFA705}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="114_{84B266C8-D8E9-4AEF-BBF4-1B62A16D542C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F1AE0A59-0EFC-4DED-9D7D-D902A5E271AE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2160,10 +2160,10 @@
     <t>@_ilipe quero um iphone 11 🤔</t>
   </si>
   <si>
-    <t xml:space="preserve">Classificação </t>
-  </si>
-  <si>
     <t>Relevância</t>
+  </si>
+  <si>
+    <t>Classificação</t>
   </si>
 </sst>
 </file>
@@ -2616,8 +2616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView topLeftCell="A482" zoomScale="49" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6648,7 +6648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I239"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" workbookViewId="0">
+    <sheetView zoomScale="55" workbookViewId="0">
       <selection activeCell="D240" sqref="D240"/>
     </sheetView>
   </sheetViews>
@@ -6663,7 +6663,7 @@
         <v>501</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="4"/>

--- a/iPhone.xlsx
+++ b/iPhone.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/87e504f2267d2b3d/Ralph/Insper/2° semestre/Ciencia dos Dados/P1CDados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabiodff/Desktop/P1CDados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="114_{84B266C8-D8E9-4AEF-BBF4-1B62A16D542C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F1AE0A59-0EFC-4DED-9D7D-D902A5E271AE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F86BAA-84CF-B54B-83EC-C43116D1D813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2170,7 +2170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2616,17 +2616,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A467" zoomScale="81" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B504" sqref="B504"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="255.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
@@ -3954,23 +3954,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B167" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B168" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>180</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>183</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>185</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
@@ -4122,23 +4122,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B188" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B189" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>189</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>191</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>193</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>194</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>195</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>201</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>203</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>207</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>208</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>209</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>210</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>211</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>212</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>213</v>
       </c>
@@ -4338,23 +4338,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B215" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B216" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>217</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>218</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>219</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>220</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>221</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>222</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>223</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>224</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>225</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>226</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>227</v>
       </c>
@@ -4450,31 +4450,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>228</v>
       </c>
       <c r="B229" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
       <c r="B230" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B231" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>231</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>234</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>235</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>236</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>237</v>
       </c>
@@ -4530,15 +4530,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>238</v>
       </c>
       <c r="B239" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>239</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>240</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>241</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>242</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>243</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>244</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>245</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>246</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>247</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>248</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>249</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>250</v>
       </c>
@@ -4634,15 +4634,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>251</v>
       </c>
       <c r="B252" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>252</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>253</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>255</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>256</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>257</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>259</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>260</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>261</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>262</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>263</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>264</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>265</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>266</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>267</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>268</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>269</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>270</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>271</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>272</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>273</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>274</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>275</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>276</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>277</v>
       </c>
@@ -4850,15 +4850,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>278</v>
       </c>
       <c r="B279" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>279</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>280</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>281</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>282</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>283</v>
       </c>
@@ -4898,15 +4898,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>284</v>
       </c>
       <c r="B285" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>285</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>286</v>
       </c>
@@ -4922,15 +4922,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>287</v>
       </c>
       <c r="B288" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>288</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>289</v>
       </c>
@@ -4946,15 +4946,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B291" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>291</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>292</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>293</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>294</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>295</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>296</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>297</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>298</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>299</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>300</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>301</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>302</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>303</v>
       </c>
@@ -5058,23 +5058,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>304</v>
       </c>
       <c r="B305" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>305</v>
       </c>
       <c r="B306" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>306</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>307</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>308</v>
       </c>
@@ -5098,15 +5098,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>309</v>
       </c>
       <c r="B310" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>310</v>
       </c>
@@ -5114,15 +5114,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>311</v>
       </c>
       <c r="B312" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>312</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>313</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>314</v>
       </c>
@@ -5146,15 +5146,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>315</v>
       </c>
       <c r="B316" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>316</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>317</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>318</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>319</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>320</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>321</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>322</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>323</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>324</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>325</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>326</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>327</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>328</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>329</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>330</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>331</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>332</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>333</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>334</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>335</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>336</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>337</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>338</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>339</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>340</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>341</v>
       </c>
@@ -5362,23 +5362,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>342</v>
       </c>
       <c r="B343" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>343</v>
       </c>
       <c r="B344" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>344</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>345</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>346</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>347</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>348</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>349</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>350</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>351</v>
       </c>
@@ -5442,31 +5442,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>352</v>
       </c>
       <c r="B353" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>353</v>
       </c>
       <c r="B354" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>354</v>
       </c>
       <c r="B355" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>355</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>356</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>357</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>358</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>359</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>360</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>361</v>
       </c>
@@ -5522,15 +5522,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>362</v>
       </c>
       <c r="B363" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>363</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>364</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>365</v>
       </c>
@@ -5554,15 +5554,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>366</v>
       </c>
       <c r="B367" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>367</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>368</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>369</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>370</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>371</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>372</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>373</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>374</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>375</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>376</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>377</v>
       </c>
@@ -5650,31 +5650,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>378</v>
       </c>
       <c r="B379" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>379</v>
       </c>
       <c r="B380" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>380</v>
       </c>
       <c r="B381" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>381</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>382</v>
       </c>
@@ -5690,15 +5690,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>383</v>
       </c>
       <c r="B384" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>384</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>385</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>386</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>387</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>388</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>389</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>390</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>391</v>
       </c>
@@ -5762,15 +5762,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>392</v>
       </c>
       <c r="B393" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>393</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>394</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>395</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>396</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>397</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>398</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>399</v>
       </c>
@@ -5826,15 +5826,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>400</v>
       </c>
       <c r="B401" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>401</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>402</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>403</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>404</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>405</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>406</v>
       </c>
@@ -5882,15 +5882,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>407</v>
       </c>
       <c r="B408" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>408</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>409</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>410</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>411</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>412</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>413</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>414</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>415</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>416</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>417</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>418</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>419</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>420</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>421</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>422</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>423</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>424</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>425</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>426</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>427</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>428</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>429</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>430</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>431</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>432</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>433</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>434</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>435</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>436</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>437</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>438</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>439</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>440</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>441</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>442</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>443</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>444</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>445</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>446</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>447</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>448</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>449</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>450</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>451</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>452</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>453</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>454</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>455</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>456</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>457</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>458</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>459</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:2">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>460</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>461</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>462</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>463</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>464</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>465</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>466</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>467</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>468</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
         <v>469</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
         <v>470</v>
       </c>
@@ -6394,31 +6394,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
         <v>471</v>
       </c>
       <c r="B472" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
         <v>472</v>
       </c>
       <c r="B473" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
         <v>473</v>
       </c>
       <c r="B474" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
         <v>474</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
         <v>475</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
         <v>476</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
         <v>477</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
         <v>478</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
         <v>479</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
         <v>480</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
         <v>481</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
         <v>482</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
         <v>483</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:2">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
         <v>484</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
         <v>485</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
         <v>486</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
         <v>487</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
         <v>488</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
         <v>489</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
         <v>490</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
         <v>491</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
         <v>492</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
         <v>493</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
         <v>494</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
         <v>495</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:2">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
         <v>496</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:2">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
         <v>497</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
         <v>498</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:2">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
         <v>499</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:2">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
         <v>500</v>
       </c>
@@ -6652,13 +6652,13 @@
       <selection activeCell="D240" sqref="D240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="255.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>501</v>
       </c>
@@ -6668,7 +6668,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>502</v>
       </c>
@@ -6678,7 +6678,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>503</v>
       </c>
@@ -6688,7 +6688,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>504</v>
       </c>
@@ -6698,7 +6698,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>505</v>
       </c>
@@ -6708,7 +6708,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>506</v>
       </c>
@@ -6718,7 +6718,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>507</v>
       </c>
@@ -6728,7 +6728,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>508</v>
       </c>
@@ -6738,7 +6738,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>509</v>
       </c>
@@ -6748,7 +6748,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>510</v>
       </c>
@@ -6758,7 +6758,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>511</v>
       </c>
@@ -6768,7 +6768,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>512</v>
       </c>
@@ -6778,7 +6778,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>513</v>
       </c>
@@ -6788,7 +6788,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>514</v>
       </c>
@@ -6798,7 +6798,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>515</v>
       </c>
@@ -6808,7 +6808,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>516</v>
       </c>
@@ -6818,7 +6818,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>517</v>
       </c>
@@ -6828,7 +6828,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>518</v>
       </c>
@@ -6838,7 +6838,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>519</v>
       </c>
@@ -6848,7 +6848,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>520</v>
       </c>
@@ -6858,7 +6858,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>521</v>
       </c>
@@ -6868,7 +6868,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>522</v>
       </c>
@@ -6878,7 +6878,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>523</v>
       </c>
@@ -6888,7 +6888,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>524</v>
       </c>
@@ -6898,7 +6898,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>525</v>
       </c>
@@ -6908,7 +6908,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>526</v>
       </c>
@@ -6918,7 +6918,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>527</v>
       </c>
@@ -6928,7 +6928,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>528</v>
       </c>
@@ -6938,7 +6938,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>529</v>
       </c>
@@ -6948,7 +6948,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>530</v>
       </c>
@@ -6958,7 +6958,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>531</v>
       </c>
@@ -6968,7 +6968,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>532</v>
       </c>
@@ -6978,7 +6978,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>533</v>
       </c>
@@ -6988,7 +6988,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>534</v>
       </c>
@@ -6998,7 +6998,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>535</v>
       </c>
@@ -7008,7 +7008,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>536</v>
       </c>
@@ -7018,7 +7018,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>537</v>
       </c>
@@ -7028,7 +7028,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>538</v>
       </c>
@@ -7038,7 +7038,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>539</v>
       </c>
@@ -7048,7 +7048,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>100</v>
       </c>
@@ -7058,7 +7058,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>101</v>
       </c>
@@ -7068,7 +7068,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>102</v>
       </c>
@@ -7078,7 +7078,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>103</v>
       </c>
@@ -7088,7 +7088,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>104</v>
       </c>
@@ -7098,7 +7098,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>105</v>
       </c>
@@ -7108,7 +7108,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>106</v>
       </c>
@@ -7118,7 +7118,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>107</v>
       </c>
@@ -7128,7 +7128,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>108</v>
       </c>
@@ -7138,7 +7138,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>109</v>
       </c>
@@ -7148,7 +7148,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>110</v>
       </c>
@@ -7158,7 +7158,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>111</v>
       </c>
@@ -7168,7 +7168,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>112</v>
       </c>
@@ -7178,7 +7178,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>113</v>
       </c>
@@ -7188,7 +7188,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>114</v>
       </c>
@@ -7198,7 +7198,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>115</v>
       </c>
@@ -7208,7 +7208,7 @@
       <c r="H55" s="2"/>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>116</v>
       </c>
@@ -7218,7 +7218,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>117</v>
       </c>
@@ -7228,7 +7228,7 @@
       <c r="H57" s="2"/>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>118</v>
       </c>
@@ -7238,7 +7238,7 @@
       <c r="H58" s="2"/>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>119</v>
       </c>
@@ -7248,7 +7248,7 @@
       <c r="H59" s="2"/>
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>120</v>
       </c>
@@ -7258,7 +7258,7 @@
       <c r="H60" s="2"/>
       <c r="I60" s="4"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>121</v>
       </c>
@@ -7268,7 +7268,7 @@
       <c r="H61" s="2"/>
       <c r="I61" s="4"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>122</v>
       </c>
@@ -7278,7 +7278,7 @@
       <c r="H62" s="2"/>
       <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>123</v>
       </c>
@@ -7288,7 +7288,7 @@
       <c r="H63" s="2"/>
       <c r="I63" s="4"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>124</v>
       </c>
@@ -7298,7 +7298,7 @@
       <c r="H64" s="2"/>
       <c r="I64" s="4"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>125</v>
       </c>
@@ -7308,7 +7308,7 @@
       <c r="H65" s="2"/>
       <c r="I65" s="4"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>126</v>
       </c>
@@ -7318,7 +7318,7 @@
       <c r="H66" s="2"/>
       <c r="I66" s="4"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>127</v>
       </c>
@@ -7328,7 +7328,7 @@
       <c r="H67" s="2"/>
       <c r="I67" s="4"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>128</v>
       </c>
@@ -7338,7 +7338,7 @@
       <c r="H68" s="2"/>
       <c r="I68" s="4"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>129</v>
       </c>
@@ -7348,7 +7348,7 @@
       <c r="H69" s="2"/>
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>130</v>
       </c>
@@ -7358,7 +7358,7 @@
       <c r="H70" s="2"/>
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>131</v>
       </c>
@@ -7368,7 +7368,7 @@
       <c r="H71" s="2"/>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>132</v>
       </c>
@@ -7378,7 +7378,7 @@
       <c r="H72" s="2"/>
       <c r="I72" s="4"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>133</v>
       </c>
@@ -7388,7 +7388,7 @@
       <c r="H73" s="2"/>
       <c r="I73" s="4"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>134</v>
       </c>
@@ -7398,7 +7398,7 @@
       <c r="H74" s="2"/>
       <c r="I74" s="4"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>135</v>
       </c>
@@ -7408,7 +7408,7 @@
       <c r="H75" s="2"/>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>136</v>
       </c>
@@ -7418,7 +7418,7 @@
       <c r="H76" s="2"/>
       <c r="I76" s="4"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>137</v>
       </c>
@@ -7428,7 +7428,7 @@
       <c r="H77" s="2"/>
       <c r="I77" s="4"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>138</v>
       </c>
@@ -7438,7 +7438,7 @@
       <c r="H78" s="2"/>
       <c r="I78" s="4"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>139</v>
       </c>
@@ -7448,7 +7448,7 @@
       <c r="H79" s="2"/>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>140</v>
       </c>
@@ -7458,7 +7458,7 @@
       <c r="H80" s="2"/>
       <c r="I80" s="4"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>141</v>
       </c>
@@ -7468,7 +7468,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="4"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>142</v>
       </c>
@@ -7478,7 +7478,7 @@
       <c r="H82" s="2"/>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>143</v>
       </c>
@@ -7488,7 +7488,7 @@
       <c r="H83" s="2"/>
       <c r="I83" s="4"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>144</v>
       </c>
@@ -7498,7 +7498,7 @@
       <c r="H84" s="2"/>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>145</v>
       </c>
@@ -7508,7 +7508,7 @@
       <c r="H85" s="2"/>
       <c r="I85" s="4"/>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>146</v>
       </c>
@@ -7518,7 +7518,7 @@
       <c r="H86" s="2"/>
       <c r="I86" s="4"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>147</v>
       </c>
@@ -7528,7 +7528,7 @@
       <c r="H87" s="2"/>
       <c r="I87" s="4"/>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>148</v>
       </c>
@@ -7538,7 +7538,7 @@
       <c r="H88" s="2"/>
       <c r="I88" s="4"/>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>149</v>
       </c>
@@ -7548,7 +7548,7 @@
       <c r="H89" s="2"/>
       <c r="I89" s="4"/>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>150</v>
       </c>
@@ -7558,7 +7558,7 @@
       <c r="H90" s="2"/>
       <c r="I90" s="4"/>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>151</v>
       </c>
@@ -7568,7 +7568,7 @@
       <c r="H91" s="2"/>
       <c r="I91" s="4"/>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>152</v>
       </c>
@@ -7578,7 +7578,7 @@
       <c r="H92" s="2"/>
       <c r="I92" s="4"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>153</v>
       </c>
@@ -7588,7 +7588,7 @@
       <c r="H93" s="2"/>
       <c r="I93" s="4"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>154</v>
       </c>
@@ -7598,7 +7598,7 @@
       <c r="H94" s="2"/>
       <c r="I94" s="4"/>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>155</v>
       </c>
@@ -7608,7 +7608,7 @@
       <c r="H95" s="2"/>
       <c r="I95" s="4"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>156</v>
       </c>
@@ -7618,7 +7618,7 @@
       <c r="H96" s="2"/>
       <c r="I96" s="4"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>157</v>
       </c>
@@ -7628,7 +7628,7 @@
       <c r="H97" s="2"/>
       <c r="I97" s="4"/>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>158</v>
       </c>
@@ -7638,7 +7638,7 @@
       <c r="H98" s="2"/>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>159</v>
       </c>
@@ -7648,7 +7648,7 @@
       <c r="H99" s="2"/>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>160</v>
       </c>
@@ -7658,7 +7658,7 @@
       <c r="H100" s="2"/>
       <c r="I100" s="4"/>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>161</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>162</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>163</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>164</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>165</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>166</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>167</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>168</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>169</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>170</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>171</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>172</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>173</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>174</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>175</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>176</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>177</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>178</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>179</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>180</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>181</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>182</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>183</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>184</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>185</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>186</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>187</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>188</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>189</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>190</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>191</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>192</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>193</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>194</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>195</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>196</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>197</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>198</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>199</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>540</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>541</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>542</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>543</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>544</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>545</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>546</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>547</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>548</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>549</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>550</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>551</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>552</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>553</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>554</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>555</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>556</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>557</v>
       </c>
@@ -8114,7 +8114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>558</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>559</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>560</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>561</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>562</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>563</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>564</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>565</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>566</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>567</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>568</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>569</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>570</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>571</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>572</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>573</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>574</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>575</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>576</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>577</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>578</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>579</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>580</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>581</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>582</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>583</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>584</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>585</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>586</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>587</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>588</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>589</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>590</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>591</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>592</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>593</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>594</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>595</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>596</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>597</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>598</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>599</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>600</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>601</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>602</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>603</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>604</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>605</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>606</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>607</v>
       </c>
@@ -8514,7 +8514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>608</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
         <v>609</v>
       </c>
@@ -8530,7 +8530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>610</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>611</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>612</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>613</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>614</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>615</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>616</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>617</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>618</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>619</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>620</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>621</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>622</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>623</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>624</v>
       </c>
@@ -8650,7 +8650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>625</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>626</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
         <v>627</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>628</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
         <v>629</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
         <v>630</v>
       </c>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
         <v>631</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>632</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>633</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>634</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>635</v>
       </c>
@@ -8738,7 +8738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>636</v>
       </c>
@@ -8746,7 +8746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>637</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>638</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>639</v>
       </c>
